--- a/data/edited_data/women-managerial-employmenr-rate.xlsx
+++ b/data/edited_data/women-managerial-employmenr-rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{979DC6EC-D36F-4285-B454-0B3869D2B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F9E1B1-6815-4974-9FE2-53136C8DDAFE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{979DC6EC-D36F-4285-B454-0B3869D2B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8847208-935E-49F2-B80F-CCADA385F63C}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="0" windowWidth="23430" windowHeight="16590" xr2:uid="{B6CF20AF-7996-406E-A72E-5EA1F3721440}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6CF20AF-7996-406E-A72E-5EA1F3721440}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -170,10 +170,10 @@
     <t>Latvia</t>
   </si>
   <si>
-    <t>rate_women_managers_2021</t>
-  </si>
-  <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>manager_women</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,12 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -269,9 +275,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +299,9 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{567DA596-A97E-4C3B-8B1C-B770A6815815}"/>
@@ -312,10 +318,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,363 +649,363 @@
     <col min="2" max="2" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>13.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>16.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>16.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>17.600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>28.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>28.4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>28.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>28.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>29.2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>29.6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>30.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>31.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>31.9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>32.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>33.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>33.700000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>34.6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>35.4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>35.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>35.6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>35.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>36.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>37.299999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>37.299999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>37.6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>37.799999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>38.299999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>38.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>38.700000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>41.2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>41.4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>45.9</v>
       </c>
     </row>
